--- a/Aeroponics Final Product/Necessary Code and Document/Bill of Materials.xlsx
+++ b/Aeroponics Final Product/Necessary Code and Document/Bill of Materials.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ADB275-31A6-4B56-ACAC-308B80F0EAFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE27F60-0874-4A74-A9D4-1C11A4EBDA9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Control Terminal " sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bucket Control Station" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Collection and Calibration" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,6 +19,194 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity </t>
+  </si>
+  <si>
+    <t>Amazon ASIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino MEGA 2560 controller </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Female Dupont Connector</t>
+  </si>
+  <si>
+    <t>B0BK76L5BD</t>
+  </si>
+  <si>
+    <t>SchmalzTech Double Sided ENIG Protoboard, Solderable Breadboard, Electronic Circuit Board for DIY Prototype Circuit, FR4, Plated Through Hole Solder Prototype Board, ST-Proto (1" x 2")</t>
+  </si>
+  <si>
+    <t>Amazon name</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Assorted dupont female- male, male-male jumper wires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dupont wires </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short jumper wires </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP8266 WiFi Module </t>
+  </si>
+  <si>
+    <t>Keypad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header Pin </t>
+  </si>
+  <si>
+    <t>B010N1ROQS</t>
+  </si>
+  <si>
+    <t>HiLetgo 3pcs ESP8266 ESP-01 Serial WiFi Wireless Transceiver Wireless Module Development Board LWIP AP+STA Compatible with Arduino</t>
+  </si>
+  <si>
+    <t>B086ZGKDK9</t>
+  </si>
+  <si>
+    <t>DIYmalls 4x4 Matrix Membrane Keypad 16 Key Keyboard Module Array Switch for Arduino ESP32</t>
+  </si>
+  <si>
+    <t>B0C6SGK21R</t>
+  </si>
+  <si>
+    <t>DIYmalls 20x4 IIC I2C 2004 LCD Display Screen Module 5V White Character Blue Backlight with Serial Adapter Board PCF8574 for Arduino (Pack of 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics Casing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Nano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relay </t>
+  </si>
+  <si>
+    <t>WiFi Module</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Power Distribution Panel</t>
+  </si>
+  <si>
+    <t>Voltage Converter</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>heat shrink tube</t>
+  </si>
+  <si>
+    <t>‎B0713XK923</t>
+  </si>
+  <si>
+    <t>ELEGOO Nano Board CH 340/ATmega+328P Without USB Cable, Compatible with Arduino Nano V3.0 (Nano x 3 Without Cable)</t>
+  </si>
+  <si>
+    <t>B07BVXT1ZK</t>
+  </si>
+  <si>
+    <t>ARCELI 5PCS 5V One Channel Relay Module Board Shield 5v Relay Module for PIC AVR DSP ARM for Relay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that in Amazon introduction, it sasy the coil voltage is 12V. But the actual coil voltage is 5 V, which is correct for our application </t>
+  </si>
+  <si>
+    <t>B07XC5KB8D</t>
+  </si>
+  <si>
+    <t>TWTADE 10Pcs Rocker Switch ON/Off SPST 2Pin Latching Toggle Switch Snap Round with Pre-Wired 6A/250V 10A/125V AC for Boat,Car etc.KCD1-X-Y</t>
+  </si>
+  <si>
+    <t>B093PWRJS9</t>
+  </si>
+  <si>
+    <t>WayinTop PCB Double-Layer Wiring Power Distribution Board Kit, 2 x 12 Position Power Distribution Module 2 Inputs 2 x 13 Outputs for DC AC 24V 10A</t>
+  </si>
+  <si>
+    <t>B076P4C42B</t>
+  </si>
+  <si>
+    <t>Wolfwhoop PW-D Control Buck Converter 6-24V to 5V 1.5A Step-Down Regulator Module Power Inverter Volt Stabilizer</t>
+  </si>
+  <si>
+    <t>Any 5V LED would work</t>
+  </si>
+  <si>
+    <t>B071VTBQNG</t>
+  </si>
+  <si>
+    <t>MILAPEAK (Real 18AWG 43x2pcs Wires) 20pcs Female DC Power Pigtail Cable, 12V 5A DC Connectors for CCTV Security Camera and Lighting Power Adapter (2.1mm x 5.5mm, Ultra Thick)</t>
+  </si>
+  <si>
+    <t>Jumper Wires</t>
+  </si>
+  <si>
+    <t>Female Round 2.1mm*5.5 mm</t>
+  </si>
+  <si>
+    <t>B07YKHV46N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST-XH connector </t>
+  </si>
+  <si>
+    <t>5 Pairs JST-XH 2.54mm 1S 2 Pin Balance Plug Lead Socket Male and Female Connector with 10cm Silicone Wire Cables for Woodland Just Plug Lights 3D Printer</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Jumper Wire</t>
+  </si>
+  <si>
+    <t>Power Source</t>
+  </si>
+  <si>
+    <t>B08Z7X9F1V</t>
+  </si>
+  <si>
+    <t>24 Volt 6 Amp Power Supply Adapter,100-240V AC to DC 24V 6A Power Adapter with 5.5mm x 2.1mm DC Output Jack Transformers US Plug for LED Strip Light,Security Cameras,Printer</t>
+  </si>
+  <si>
+    <t>Potentiometer for Arduino</t>
+  </si>
+  <si>
+    <t>SunFounder LCD1602 Module with 3.3V Backlight Compatible with Arduino R3 Mega2560 Raspberry Pi 16x2 Character White on Blue Background</t>
+  </si>
+  <si>
+    <t>B071Y6JX3H</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52,8 +240,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,36 +523,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF359FA-934B-4619-868C-F8F26E2F6EB5}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBF1AC5-93AE-4014-9197-AD6171E33A6B}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Aeroponics Final Product/Necessary Code and Document/Bill of Materials.xlsx
+++ b/Aeroponics Final Product/Necessary Code and Document/Bill of Materials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE27F60-0874-4A74-A9D4-1C11A4EBDA9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677FA301-9C68-4EE5-83CF-0F40310DD68F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Main Control Terminal " sheetId="1" r:id="rId1"/>
     <sheet name="Bucket Control Station" sheetId="2" r:id="rId2"/>
     <sheet name="Data Collection and Calibration" sheetId="3" r:id="rId3"/>
+    <sheet name="In Barrel Stand" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -670,7 +671,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+      <selection activeCell="B14" sqref="B14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,10 +893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBF1AC5-93AE-4014-9197-AD6171E33A6B}">
-  <dimension ref="B1:K6"/>
+  <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,6 +975,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28492D4-F870-4960-8DE4-3DA426610CC8}">
+  <dimension ref="B1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aeroponics Final Product/Necessary Code and Document/Bill of Materials.xlsx
+++ b/Aeroponics Final Product/Necessary Code and Document/Bill of Materials.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677FA301-9C68-4EE5-83CF-0F40310DD68F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C86B77-7860-E243-9563-369D64CAF32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="14980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Control Terminal " sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>DIYmalls 20x4 IIC I2C 2004 LCD Display Screen Module 5V White Character Blue Backlight with Serial Adapter Board PCF8574 for Arduino (Pack of 2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Electronics Casing </t>
-  </si>
-  <si>
     <t xml:space="preserve">Arduino Nano </t>
   </si>
   <si>
@@ -206,19 +203,67 @@
   </si>
   <si>
     <t>B071Y6JX3H</t>
+  </si>
+  <si>
+    <t>Remote Control Casing</t>
+  </si>
+  <si>
+    <t>CAD in Github</t>
+  </si>
+  <si>
+    <t>Switch Box</t>
+  </si>
+  <si>
+    <t>24V Fan</t>
+  </si>
+  <si>
+    <t>Infrared Sensor</t>
+  </si>
+  <si>
+    <t>Quantity (per Bucket)</t>
+  </si>
+  <si>
+    <t>Mist Maker</t>
+  </si>
+  <si>
+    <t>Fan and Sensor stand</t>
+  </si>
+  <si>
+    <t>B00N1Y3T9G</t>
+  </si>
+  <si>
+    <t>B00P91ZFPA</t>
+  </si>
+  <si>
+    <t>GDSTIME 80mm x 80mm x 25mm 24V Brushless DC Cooling Fan</t>
+  </si>
+  <si>
+    <t>AGPTEK Aluminum Mini Mist Maker Fogger Water Fountain Pond Fog Machine Atomizer, Perfect for Halloween, Christmas and Other Holidays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,9 +286,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,12 +573,12 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -560,22 +606,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -586,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -594,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -602,22 +647,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -631,7 +675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -645,7 +689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -653,12 +697,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -668,15 +715,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF359FA-934B-4619-868C-F8F26E2F6EB5}">
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I14"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -693,130 +740,124 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>27</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>28</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>30</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>31</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -825,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -836,53 +877,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>57</v>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -895,13 +945,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBF1AC5-93AE-4014-9197-AD6171E33A6B}">
   <dimension ref="B1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -918,75 +968,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -996,20 +1044,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28492D4-F870-4960-8DE4-3DA426610CC8}">
-  <dimension ref="B1:K1"/>
+  <dimension ref="B1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1019,6 +1067,53 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
